--- a/assets/testdata/2019-pre-predictions.xlsx
+++ b/assets/testdata/2019-pre-predictions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisaronchick/GitHub/crowdsourcedscores-web/assets/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3524D22D-D697-DE4B-BB0F-5ED6EA2F451C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BEB70D-DC69-0845-98A8-771250B7630A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -599,7 +600,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1143,7 +1144,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Gemma and Chris Aronchick" refreshedDate="43710.835339814817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="111">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gemma and Chris Aronchick" refreshedDate="43710.835339814817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="111" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Y112" sheet="2019-pre-predictions"/>
   </cacheSource>
@@ -4277,7 +4278,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -4442,6 +4443,40 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{787F26DA-FE31-1F47-B65A-87234EF6F32F}" name="Table1" displayName="Table1" ref="A1:Y112" totalsRowShown="0">
+  <autoFilter ref="A1:Y112" xr:uid="{87D7C705-0FE6-4A41-9115-93224E52A053}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{F51442FD-D37C-5742-80E7-586F63C98AC4}" name="gameId"/>
+    <tableColumn id="2" xr3:uid="{5604715E-835D-2041-A841-D0A8F750DB92}" name="year"/>
+    <tableColumn id="3" xr3:uid="{AF7C227E-A8B8-AF45-9D9B-411469D3C46D}" name="gameWeek"/>
+    <tableColumn id="4" xr3:uid="{98D35FA3-F1CC-A545-8C5C-49C6DA271319}" name="awayTeam.fullName"/>
+    <tableColumn id="5" xr3:uid="{E72927A3-5EA4-E445-8FEA-6C1CCAAF171B}" name="awayTeam.score"/>
+    <tableColumn id="6" xr3:uid="{A60A5FB4-CB49-C547-B871-310E87E66459}" name="homeTeam.fullName"/>
+    <tableColumn id="7" xr3:uid="{9367B407-576D-D14D-B30A-3331E106C783}" name="homeTeam.score"/>
+    <tableColumn id="8" xr3:uid="{79E50F6E-B3CE-1E47-8AC6-AB3D34AA214E}" name="stars.spread"/>
+    <tableColumn id="9" xr3:uid="{3B55BF94-CE1B-4B41-AA98-11802C87A62E}" name="stars.total"/>
+    <tableColumn id="10" xr3:uid="{3F111A28-EEA6-C44B-95CD-FE3C400603DC}" name="results.winner.correct"/>
+    <tableColumn id="11" xr3:uid="{0010E8F0-088D-C640-950B-D12C440674AA}" name="results.winner.push"/>
+    <tableColumn id="12" xr3:uid="{360A4CD8-2E8D-C94B-8E32-AD51009E55D0}" name="results.spread.correct"/>
+    <tableColumn id="13" xr3:uid="{3B60DC79-C7FA-B14B-B982-958F17BE4463}" name="results.spread.push"/>
+    <tableColumn id="14" xr3:uid="{899D8B5A-40AC-0F4C-81F9-48574BF5A6DE}" name="results.spread.stars.wagered"/>
+    <tableColumn id="15" xr3:uid="{0338E527-F18C-4B48-A184-7FE496295889}" name="results.spread.stars.net"/>
+    <tableColumn id="16" xr3:uid="{04438BB4-4952-ED4F-A3BF-32A4CFCC7CA1}" name="results.total.correct"/>
+    <tableColumn id="17" xr3:uid="{10D3C266-9684-9F45-A235-8823015D10E6}" name="results.total.push"/>
+    <tableColumn id="18" xr3:uid="{2D669E49-6C6B-F44A-8D68-A213FF6E7EA7}" name="results.total.stars.wagered"/>
+    <tableColumn id="19" xr3:uid="{1D8EF6E6-265D-CD49-BA14-C514AF94E8BD}" name="results.total.stars.net"/>
+    <tableColumn id="20" xr3:uid="{289B78CE-D216-1948-8CBB-B8978881304D}" name="spread"/>
+    <tableColumn id="21" xr3:uid="{168DAA01-342B-9E4B-B31E-E393DFF5174C}" name="total"/>
+    <tableColumn id="22" xr3:uid="{15ACEC44-5C31-7245-BFD1-2B521E68D388}" name="submitted"/>
+    <tableColumn id="23" xr3:uid="{AC0C5302-24D4-EA47-ABB4-B2125F3345DA}" name="userId"/>
+    <tableColumn id="24" xr3:uid="{D177CB4B-BE48-C443-9E05-7CEA07410874}" name="predictionScore"/>
+    <tableColumn id="25" xr3:uid="{0B74E5FA-9C07-AF4A-8EFD-090B9788ABF3}" name="preferred_username"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4740,11 +4775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5017,14 +5052,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.1640625" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="25.5" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="16.1640625" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -13586,5 +13643,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>